--- a/docs/StructureDefinition-DebtPortalInvoice.xlsx
+++ b/docs/StructureDefinition-DebtPortalInvoice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalInvoice.xlsx
+++ b/docs/StructureDefinition-DebtPortalInvoice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalInvoice.xlsx
+++ b/docs/StructureDefinition-DebtPortalInvoice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalInvoice.xlsx
+++ b/docs/StructureDefinition-DebtPortalInvoice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalInvoice.xlsx
+++ b/docs/StructureDefinition-DebtPortalInvoice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,7 +490,8 @@
     <t>1975: source value based on ACCOUNTS RECEIVABLE - BILL NO. (430-.01)</t>
   </si>
   <si>
-    <t>IB.AccountsReceivable.BillNumber,IB.AccountsReceivableTCSP.BillNumber</t>
+    <t>IB.AccountsReceivable.BillNumber
+IB.AccountsReceivableTCSP.BillNumber</t>
   </si>
   <si>
     <t>FT1.2</t>
@@ -964,7 +965,13 @@
     <t>1976: reference based on ACCOUNTS RECEIVABLE - PATIENT (430-7)</t>
   </si>
   <si>
-    <t>IB.AccountsReceivable.PatientIEN,IB.AccountsReceivableComment.PatientIEN,IB.AccountsReceivableDescription.PatientIEN,IB.AccountsReceivableFiscalYear.PatientIEN,IB.AccountsReceivableRepayDate.PatientIEN,IB.AccountsReceivableTCSP.PatientIEN,IB.AccountsReceivableTCSP.PatientSID</t>
+    <t>IB.AccountsReceivable.PatientIEN
+IB.AccountsReceivableComment.PatientIEN
+IB.AccountsReceivableDescription.PatientIEN
+IB.AccountsReceivableFiscalYear.PatientIEN
+IB.AccountsReceivableRepayDate.PatientIEN
+IB.AccountsReceivableTCSP.PatientIEN
+IB.AccountsReceivableTCSP.PatientSID</t>
   </si>
   <si>
     <t>PAT in proximity to FT1 segment</t>
@@ -1000,7 +1007,11 @@
   </si>
   <si>
     <t>IB.AccountsReceivable.ARDebtorIEN
-Dim.ARDebtor.InstitutionIEN,Dim.ARDebtor.InsuranceCompanyIEN,Dim.ARDebtor.PatientIEN,Dim.ARDebtor.StaffIEN,Dim.ARDebtor.VendorIEN</t>
+Dim.ARDebtor.InstitutionIEN
+Dim.ARDebtor.InsuranceCompanyIEN
+Dim.ARDebtor.PatientIEN
+Dim.ARDebtor.StaffIEN
+Dim.ARDebtor.VendorIEN</t>
   </si>
   <si>
     <t>PV1 in proximity to FT1 segment</t>
@@ -1031,7 +1042,12 @@
     <t>1977: source value based on ACCOUNTS RECEIVABLE - DATE BILL PREPARED (430-10)</t>
   </si>
   <si>
-    <t>IB.AccountsReceivable.BillPreparedDateTime,IB.AccountsReceivableComment.BillPreparedDateTime,IB.AccountsReceivableDescription.BillPreparedDateTime,IB.AccountsReceivableFiscalYear.BillPreparedDateTime,IB.AccountsReceivableRepayDate.BillPreparedDateTime,IB.AccountsReceivableTCSP.BillPreparedDateTime</t>
+    <t>IB.AccountsReceivable.BillPreparedDateTime
+IB.AccountsReceivableComment.BillPreparedDateTime
+IB.AccountsReceivableDescription.BillPreparedDateTime
+IB.AccountsReceivableFiscalYear.BillPreparedDateTime
+IB.AccountsReceivableRepayDate.BillPreparedDateTime
+IB.AccountsReceivableTCSP.BillPreparedDateTime</t>
   </si>
   <si>
     <t>.effectiveTime</t>
@@ -2862,7 +2878,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="129.5859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="253.8828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="39.109375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="83.85546875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DebtPortalInvoice.xlsx
+++ b/docs/StructureDefinition-DebtPortalInvoice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1477,10 +1477,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-1999-1:If 433-.03 == 430 then fixed value #surcharge {true}</t>
-  </si>
-  <si>
-    <t>1999-1: fixed value = #surcharge if 433-.03 == 430</t>
+dpi-17-1999-1:If {.03&gt;430} then fixed value #surcharge {true}</t>
+  </si>
+  <si>
+    <t>1999-1: fixed value = #surcharge if {.03&gt;430}</t>
   </si>
   <si>
     <t>Invoice.lineItem:va-interest.priceComponent:va-marshal-fee-charged.code</t>
@@ -1499,10 +1499,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-1999-2:If 433-.03 == 430 then fixed value Marshal Fee Charged {true}</t>
-  </si>
-  <si>
-    <t>1999-2: fixed value = Marshal Fee Charged if 433-.03 == 430</t>
+dpi-17-1999-2:If {.03&gt;430} then fixed value Marshal Fee Charged {true}</t>
+  </si>
+  <si>
+    <t>1999-2: fixed value = Marshal Fee Charged if {.03&gt;430}</t>
   </si>
   <si>
     <t>Invoice.lineItem:va-interest.priceComponent:va-marshal-fee-charged.factor</t>
@@ -1512,10 +1512,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-1999:If 433-.03 == 430 then source value from (433-25) {true}</t>
-  </si>
-  <si>
-    <t>1999: source value based on AR TRANSACTION - MARSHAL FEE (433-25) if 433-.03 == 430</t>
+dpi-17-1999:If {.03&gt;430} then source value from (433-25) {true}</t>
+  </si>
+  <si>
+    <t>1999: source value based on AR TRANSACTION - MARSHAL FEE (433-25) if {.03&gt;430}</t>
   </si>
   <si>
     <t>IB.ARTransaction.MarshalFee</t>
@@ -1540,10 +1540,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2000-1:If 433-.03 == 430 then fixed value #surcharge {true}</t>
-  </si>
-  <si>
-    <t>2000-1: fixed value = #surcharge if 433-.03 == 430</t>
+dpi-17-2000-1:If {.03&gt;430} then fixed value #surcharge {true}</t>
+  </si>
+  <si>
+    <t>2000-1: fixed value = #surcharge if {.03&gt;430}</t>
   </si>
   <si>
     <t>Invoice.lineItem:va-interest.priceComponent:va-court-cost-charged.code</t>
@@ -1562,10 +1562,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2000-2:If 433-.03 == 430 then fixed value Court Cost Charged {true}</t>
-  </si>
-  <si>
-    <t>2000-2: fixed value = Court Cost Charged if 433-.03 == 430</t>
+dpi-17-2000-2:If {.03&gt;430} then fixed value Court Cost Charged {true}</t>
+  </si>
+  <si>
+    <t>2000-2: fixed value = Court Cost Charged if {.03&gt;430}</t>
   </si>
   <si>
     <t>Invoice.lineItem:va-interest.priceComponent:va-court-cost-charged.factor</t>
@@ -1575,10 +1575,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2000:If 433-.03 == 430 then source value from (433-26) {true}</t>
-  </si>
-  <si>
-    <t>2000: source value based on AR TRANSACTION - COURT COST (433-26) if 433-.03 == 430</t>
+dpi-17-2000:If {.03&gt;430} then source value from (433-26) {true}</t>
+  </si>
+  <si>
+    <t>2000: source value based on AR TRANSACTION - COURT COST (433-26) if {.03&gt;430}</t>
   </si>
   <si>
     <t>IB.ARTransaction.CourtCost</t>
@@ -1603,10 +1603,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2001-1:If 433-.03 == 430 then fixed value #surcharge {true}</t>
-  </si>
-  <si>
-    <t>2001-1: fixed value = #surcharge if 433-.03 == 430</t>
+dpi-17-2001-1:If {.03&gt;430} then fixed value #surcharge {true}</t>
+  </si>
+  <si>
+    <t>2001-1: fixed value = #surcharge if {.03&gt;430}</t>
   </si>
   <si>
     <t>Invoice.lineItem:va-interest.priceComponent:va-interest-charged.code</t>
@@ -1625,10 +1625,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2001-2:If 433-.03 == 430 then fixed value Interest Charged {true}</t>
-  </si>
-  <si>
-    <t>2001-2: fixed value = Interest Charged if 433-.03 == 430</t>
+dpi-17-2001-2:If {.03&gt;430} then fixed value Interest Charged {true}</t>
+  </si>
+  <si>
+    <t>2001-2: fixed value = Interest Charged if {.03&gt;430}</t>
   </si>
   <si>
     <t>Invoice.lineItem:va-interest.priceComponent:va-interest-charged.factor</t>
@@ -1638,10 +1638,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2001:If 433-.03 == 430 then source value from (433-27) {true}</t>
-  </si>
-  <si>
-    <t>2001: source value based on AR TRANSACTION - INT.CHARGE (433-27) if 433-.03 == 430</t>
+dpi-17-2001:If {.03&gt;430} then source value from (433-27) {true}</t>
+  </si>
+  <si>
+    <t>2001: source value based on AR TRANSACTION - INT.CHARGE (433-27) if {.03&gt;430}</t>
   </si>
   <si>
     <t>IB.ARTransaction.InterestCharge</t>
@@ -1666,10 +1666,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2002-1:If 433-.03 == 430 then fixed value #surcharge {true}</t>
-  </si>
-  <si>
-    <t>2002-1: fixed value = #surcharge if 433-.03 == 430</t>
+dpi-17-2002-1:If {.03&gt;430} then fixed value #surcharge {true}</t>
+  </si>
+  <si>
+    <t>2002-1: fixed value = #surcharge if {.03&gt;430}</t>
   </si>
   <si>
     <t>Invoice.lineItem:va-interest.priceComponent:va-admin-charged.code</t>
@@ -1688,10 +1688,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2002-2:If 433-.03 == 430 then fixed value Administrative Charged {true}</t>
-  </si>
-  <si>
-    <t>2002-2: fixed value = Administrative Charged if 433-.03 == 430</t>
+dpi-17-2002-2:If {.03&gt;430} then fixed value Administrative Charged {true}</t>
+  </si>
+  <si>
+    <t>2002-2: fixed value = Administrative Charged if {.03&gt;430}</t>
   </si>
   <si>
     <t>Invoice.lineItem:va-interest.priceComponent:va-admin-charged.factor</t>
@@ -1701,10 +1701,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpi-17-2002:If 433-.03 == 430 then source value from (433-28) {true}</t>
-  </si>
-  <si>
-    <t>2002: source value based on AR TRANSACTION - ADM.CHARGE (433-28) if 433-.03 == 430</t>
+dpi-17-2002:If {.03&gt;430} then source value from (433-28) {true}</t>
+  </si>
+  <si>
+    <t>2002: source value based on AR TRANSACTION - ADM.CHARGE (433-28) if {.03&gt;430}</t>
   </si>
   <si>
     <t>IB.ARTransaction.AdministrativeCharge</t>

--- a/docs/StructureDefinition-DebtPortalInvoice.xlsx
+++ b/docs/StructureDefinition-DebtPortalInvoice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
